--- a/01_PowerBI/Maas 2.xlsx
+++ b/01_PowerBI/Maas 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\POWER BI\Power BI Kurs Eylül 2024\4.Hafta (Power Query)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUSVivaBook\Desktop\GitHub\Data_Fundamentals\01_PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D81904C-D1F2-45B8-8DEF-FDDFA6C5517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908369B-943C-46CA-B3DE-97468DC0622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5256" yWindow="1320" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personel" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
